--- a/data/programs/piuh/docs/Anexo5.xlsx
+++ b/data/programs/piuh/docs/Anexo5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VRIP 2023\DCT\programa institucional\anexos evalaucion de expertos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD587E5-FB41-4683-84EA-A0F5171737CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F3EB40-D587-4EFD-AD17-EAD4610B2591}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8856" activeTab="4" xr2:uid="{D4A827E2-8714-49CF-B4A6-2A208CB3C175}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8856" activeTab="3" xr2:uid="{D4A827E2-8714-49CF-B4A6-2A208CB3C175}"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>CRITERIO 1 –CONTENIDO CIENTÍFICO-TECNOLÓGICO</t>
   </si>
@@ -151,12 +151,6 @@
     <t>Firma del Evaluador</t>
   </si>
   <si>
-    <t>PLANILLA DE EVALUACIÓN DE PROYECTOS DE  DESARROLLO</t>
-  </si>
-  <si>
-    <t>PLANILLA DE EVALUACIÓN DE PROYECTOS DEDESARROLLO</t>
-  </si>
-  <si>
     <t>a) Valoración de la idoneidad del equipo de investigación.</t>
   </si>
   <si>
@@ -178,7 +172,7 @@
     <t>g) Valoración sobre el monto y estructura del presupuesto solicitado para la investigación.</t>
   </si>
   <si>
-    <t>PLANILLA DE EVALUACIÓN DE PROYECTOS DE DESARROLLO</t>
+    <t>PLANILLA DE EVALUACIÓN DE PROYECTOS  INVESTIGACIÓN APLICADA Y DE  DESARROLLO</t>
   </si>
 </sst>
 </file>
@@ -223,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -433,11 +427,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -473,9 +502,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -587,6 +613,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -901,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733A6665-3B49-476F-AF4A-FE2094B115FE}">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,134 +950,135 @@
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-    </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="34" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="17">
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="16">
         <f>'Criterio 1'!D21+'Criterio 2'!D18+'Criterio 3'!D18+'Criterio 4'!D17</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="34" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="4">
         <f>F9/4</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-    </row>
-    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="40"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="39"/>
       <c r="D12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-    </row>
-    <row r="13" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="41"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+    </row>
+    <row r="13" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="40"/>
       <c r="D13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-    </row>
-    <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+    </row>
+    <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C2:F2"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C18:F20"/>
     <mergeCell ref="C4:F4"/>
@@ -1054,6 +1091,7 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1064,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B7CC4E-8F43-4EB5-B5E3-CCB2B3365F77}">
   <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,10 +1114,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="18"/>
+      <c r="C2" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="53"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
@@ -1088,30 +1126,30 @@
       <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="25"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="28"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
@@ -1126,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1134,7 +1172,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1142,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1150,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1158,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1166,7 +1204,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1174,7 +1212,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1182,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1190,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1198,21 +1236,20 @@
         <v>12</v>
       </c>
       <c r="D20" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <f>SUM(D11:D20)/10</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="5">
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
@@ -1228,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27791F70-EE26-4A2D-8305-C415D824675F}">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1239,10 +1276,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="18"/>
+      <c r="C2" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="53"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
@@ -1251,30 +1288,30 @@
       <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="25"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="28"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
@@ -1289,7 +1326,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1297,53 +1334,52 @@
         <v>16</v>
       </c>
       <c r="D12" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="46">
-        <v>90</v>
+      <c r="D13" s="45">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="47"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="46"/>
     </row>
     <row r="17" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <f>SUM(D11:D17)/3</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="6">
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="C4:D4"/>
@@ -1359,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EDC4DA-D903-4C34-BA96-A9F614839347}">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,10 +1406,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="18"/>
+      <c r="C2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="17"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
@@ -1382,30 +1418,30 @@
       <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="25"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="28"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
@@ -1417,67 +1453,67 @@
     </row>
     <row r="11" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <f>AVERAGE(D11:D17)</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1497,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B771D98-9F51-45F6-8F74-43585792377F}">
   <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1509,10 +1545,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="18"/>
+      <c r="C2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="17"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
@@ -1521,94 +1557,95 @@
       <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="25"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="28"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="50"/>
+      <c r="D9" s="49"/>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="51" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4">
-        <v>90</v>
-      </c>
+      <c r="D11" s="52">
+        <v>100</v>
+      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4">
-        <v>90</v>
+      <c r="D12" s="52">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4">
-        <v>90</v>
+      <c r="D13" s="52">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="4">
-        <v>90</v>
+      <c r="D14" s="52">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="4">
-        <v>90</v>
+      <c r="D15" s="52">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="4">
-        <v>90</v>
+      <c r="D16" s="52">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <f>SUM(D11:D16)/6</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1621,5 +1658,6 @@
     <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>